--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>563311.1050738378</v>
+        <v>570443.2269631915</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5339910.946555802</v>
+        <v>5339910.946555803</v>
       </c>
     </row>
     <row r="11">
@@ -656,76 +656,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="X2" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.86228322859426</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>14.6900620208583</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367362</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,64 +896,64 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>31.15099944008765</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>205.5178444382804</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>35.48097323204065</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -993,10 +993,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>78.74721279771927</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>9.211010870930394</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>71.81312127875377</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>47.29627918133471</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.82778746869523</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>205.5178444382804</v>
@@ -1449,10 +1449,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>81.13095251577731</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>14.48693373137006</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1570,10 +1570,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -1664,7 +1664,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>31.1509994400877</v>
+        <v>9.211010870930345</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>7.692106705274742</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.49940747082301</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1901,7 +1901,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>58.46192485583209</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>123.8814522403791</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>86.74417241254953</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>103.9917919211018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2637,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>143.8263020281278</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>158.5383251698113</v>
       </c>
     </row>
     <row r="28">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,22 +2843,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,16 +2883,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>88.34573786608344</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>135.4132168533397</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
@@ -3345,28 +3345,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>120.1832748619387</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3597,7 +3597,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>31.65558112810168</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>87.39448298874188</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,52 +3661,52 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>9.336946277399601</v>
+        <v>14.48693373137</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3974,14 +3974,14 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>114.6969565630367</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>99.47247927474804</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
         <v>16.44142755506243</v>
@@ -4331,7 +4331,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
         <v>176.2910403306274</v>
@@ -4340,40 +4340,40 @@
         <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>583.2163723184225</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>732.4113224610705</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922322</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>406.883813231343</v>
       </c>
       <c r="W2" t="n">
-        <v>639.2227743377304</v>
+        <v>199.2900309704537</v>
       </c>
       <c r="X2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.12050152333947</v>
+        <v>31.27987404077788</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077788</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077788</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077788</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077788</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077788</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077788</v>
       </c>
       <c r="I3" t="n">
         <v>16.44142755506243</v>
@@ -4410,13 +4410,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>366.5706756325438</v>
+        <v>163.1080096386463</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4425,34 +4425,34 @@
         <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>752.6768192397922</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037904</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>446.4674385625564</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>446.4674385625564</v>
       </c>
       <c r="V3" t="n">
-        <v>720.9018483060073</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W3" t="n">
-        <v>513.308066045118</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X3" t="n">
-        <v>305.7142837842288</v>
+        <v>31.27987404077788</v>
       </c>
       <c r="Y3" t="n">
-        <v>98.12050152333947</v>
+        <v>31.27987404077788</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.94135112442973</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>47.90708355515096</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515096</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515096</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515096</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515096</v>
       </c>
       <c r="G5" t="n">
         <v>16.44142755506243</v>
@@ -4571,46 +4571,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>583.2163723184225</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>732.4113224610705</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378188</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378188</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378188</v>
       </c>
       <c r="U5" t="n">
-        <v>639.2227743377304</v>
+        <v>670.6884303378188</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769295</v>
       </c>
       <c r="W5" t="n">
-        <v>431.628992076841</v>
+        <v>255.5008658160402</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>255.5008658160402</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>47.90708355515096</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451.6694460918196</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="C6" t="n">
-        <v>451.6694460918196</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="D6" t="n">
-        <v>451.6694460918196</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="E6" t="n">
-        <v>415.8300791907684</v>
+        <v>494.618585727598</v>
       </c>
       <c r="F6" t="n">
-        <v>269.2955212176533</v>
+        <v>348.084027754483</v>
       </c>
       <c r="G6" t="n">
-        <v>130.5646958002688</v>
+        <v>209.3532023370985</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>95.98406674467786</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>141.7989876128998</v>
       </c>
       <c r="L6" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>345.7514872519972</v>
+        <v>548.7243196006949</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>548.7243196006949</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>752.1869855945924</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>752.6768192397922</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="T6" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="U6" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="V6" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="W6" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="X6" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="Y6" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531215</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C8" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4808,46 +4808,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184225</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610705</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="S8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="T8" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="U8" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="V8" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="W8" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="X8" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377302</v>
       </c>
       <c r="Y8" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377302</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>190.8944568361894</v>
+        <v>238.6684762112749</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>238.6684762112749</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>89.73406655002367</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>89.73406655002367</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>89.73406655002367</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>89.73406655002367</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>89.73406655002367</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784814</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>141.7989876128998</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128998</v>
       </c>
       <c r="M9" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>548.7243196006949</v>
       </c>
       <c r="O9" t="n">
         <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>752.6768192397922</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>614.4775954922322</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922322</v>
       </c>
       <c r="Y9" t="n">
-        <v>359.1097938562575</v>
+        <v>406.883813231343</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
-        <v>110.7436296931158</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>406.883813231343</v>
       </c>
       <c r="C11" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704537</v>
       </c>
       <c r="D11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5042,49 +5042,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922322</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>272.8449139228332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>98.39188464170618</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
         <v>16.44142755506243</v>
@@ -5121,49 +5121,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128998</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128998</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>548.7243196006949</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>752.6768192397922</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="S12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="T12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="U12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="V12" t="n">
-        <v>648.6540332037905</v>
+        <v>807.4381113577982</v>
       </c>
       <c r="W12" t="n">
-        <v>648.6540332037905</v>
+        <v>599.844329096909</v>
       </c>
       <c r="X12" t="n">
-        <v>648.6540332037905</v>
+        <v>392.2505468360197</v>
       </c>
       <c r="Y12" t="n">
-        <v>441.0602509429012</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5218,31 +5218,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>469.4137616165759</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104735</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848945</v>
       </c>
       <c r="R14" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695917</v>
       </c>
       <c r="S14" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087024</v>
       </c>
       <c r="T14" t="n">
-        <v>255.5008658160403</v>
+        <v>245.4092504478132</v>
       </c>
       <c r="U14" t="n">
-        <v>47.90708355515102</v>
+        <v>37.81546818692391</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>190.8944568361894</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784814</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128998</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>423.3667595428576</v>
+        <v>548.7243196006949</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>548.7243196006949</v>
       </c>
       <c r="O15" t="n">
-        <v>626.8294255367553</v>
+        <v>752.1869855945924</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>752.6768192397922</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="R15" t="n">
-        <v>774.0921782876438</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="S15" t="n">
-        <v>600.6748337383127</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="T15" t="n">
-        <v>398.4882390970787</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="U15" t="n">
-        <v>190.8944568361894</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="V15" t="n">
-        <v>190.8944568361894</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="W15" t="n">
-        <v>190.8944568361894</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="X15" t="n">
-        <v>190.8944568361894</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.8944568361894</v>
+        <v>822.0713777531215</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>728.9050472788936</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C18" t="n">
-        <v>669.8525979295682</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D18" t="n">
-        <v>520.918188268317</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E18" t="n">
-        <v>361.6807332628614</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,10 +5598,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V18" t="n">
-        <v>728.9050472788936</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W18" t="n">
-        <v>728.9050472788936</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X18" t="n">
-        <v>728.9050472788936</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y18" t="n">
-        <v>728.9050472788936</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="19">
@@ -5695,19 +5695,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.4139231509997</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5832,19 +5832,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>318.8669524321267</v>
       </c>
     </row>
     <row r="22">
@@ -5938,16 +5938,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6075,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
         <v>725.4530095217538</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>125.0774898247174</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X24" t="n">
-        <v>125.0774898247174</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.03527576299844</v>
+        <v>310.5702840197694</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>569.2254314512334</v>
+      </c>
+      <c r="C26" t="n">
+        <v>569.2254314512334</v>
+      </c>
+      <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>313.4946457291688</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>313.4946457291688</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>164.5602360679176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="Y27" t="n">
-        <v>481.7099827492369</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>512.7568786610034</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="C30" t="n">
-        <v>338.3038493798764</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="D30" t="n">
-        <v>338.3038493798764</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="E30" t="n">
-        <v>338.3038493798764</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="F30" t="n">
-        <v>338.3038493798764</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="G30" t="n">
-        <v>199.5730239624919</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6570,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X30" t="n">
-        <v>512.7568786610034</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.7568786610034</v>
+        <v>90.64333416851576</v>
       </c>
     </row>
     <row r="31">
@@ -6728,19 +6728,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
         <v>19.28114311021272</v>
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>168.215552771464</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C33" t="n">
-        <v>168.215552771464</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>827.2761283860507</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>827.2761283860507</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>827.2761283860507</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>583.8273517419507</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>375.9758515364179</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y33" t="n">
-        <v>168.215552771464</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="34">
@@ -6880,7 +6880,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
         <v>19.28114311021272</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7023,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="U38" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U38" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>566.8500717543842</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C39" t="n">
-        <v>566.8500717543842</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D39" t="n">
-        <v>417.9156620931329</v>
+        <v>336.5218609735422</v>
       </c>
       <c r="E39" t="n">
-        <v>417.9156620931329</v>
+        <v>336.5218609735422</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>189.9873030004272</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>51.25647758304271</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7257,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M39" t="n">
-        <v>383.2428491569326</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>774.6103705193382</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y39" t="n">
-        <v>566.8500717543842</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>811.9797623848946</v>
+        <v>811.9797623848945</v>
       </c>
       <c r="C41" t="n">
-        <v>811.9797623848946</v>
+        <v>811.9797623848945</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>639.2227743377302</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
@@ -7415,46 +7415,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184225</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610705</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>811.9797623848945</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>811.9797623848945</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>811.9797623848945</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>811.9797623848945</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>811.9797623848945</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848946</v>
+        <v>811.9797623848945</v>
       </c>
       <c r="W41" t="n">
-        <v>811.9797623848946</v>
+        <v>811.9797623848945</v>
       </c>
       <c r="X41" t="n">
-        <v>811.9797623848946</v>
+        <v>811.9797623848945</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.9797623848946</v>
+        <v>811.9797623848945</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25.87268642112264</v>
+        <v>31.07469395038567</v>
       </c>
       <c r="C42" t="n">
         <v>16.44142755506243</v>
@@ -7491,49 +7491,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>141.7989876128998</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128998</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>163.1080096386463</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397922</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="T42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="U42" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922322</v>
       </c>
       <c r="V42" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922322</v>
       </c>
       <c r="W42" t="n">
-        <v>233.4664686820119</v>
+        <v>406.883813231343</v>
       </c>
       <c r="X42" t="n">
-        <v>233.4664686820119</v>
+        <v>406.883813231343</v>
       </c>
       <c r="Y42" t="n">
-        <v>25.87268642112264</v>
+        <v>199.2900309704537</v>
       </c>
     </row>
     <row r="43">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7658,40 +7658,40 @@
         <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>583.2163723184225</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>732.4113224610705</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>811.9797623848945</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>660.5968149695917</v>
       </c>
       <c r="S44" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377302</v>
       </c>
       <c r="T44" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377302</v>
       </c>
       <c r="U44" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377302</v>
       </c>
       <c r="V44" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377302</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377302</v>
       </c>
       <c r="X44" t="n">
+        <v>639.2227743377302</v>
+      </c>
+      <c r="Y44" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>340.5829991502264</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>166.1299698690994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>141.7989876128998</v>
       </c>
       <c r="L45" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>548.7243196006949</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>752.6768192397922</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>822.0713777531215</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060072</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566761</v>
       </c>
       <c r="T45" t="n">
-        <v>548.1767814111157</v>
+        <v>547.4845037566761</v>
       </c>
       <c r="U45" t="n">
-        <v>340.5829991502264</v>
+        <v>339.8907214957868</v>
       </c>
       <c r="V45" t="n">
-        <v>340.5829991502264</v>
+        <v>339.8907214957868</v>
       </c>
       <c r="W45" t="n">
-        <v>340.5829991502264</v>
+        <v>339.8907214957868</v>
       </c>
       <c r="X45" t="n">
-        <v>340.5829991502264</v>
+        <v>339.8907214957868</v>
       </c>
       <c r="Y45" t="n">
-        <v>340.5829991502264</v>
+        <v>132.2969392348975</v>
       </c>
     </row>
     <row r="46">
@@ -7837,16 +7837,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -7979,13 +7979,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>435.8640776655531</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>163.6582985944894</v>
+        <v>290.2820966327091</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8219,13 +8219,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726565</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>435.8640776655531</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8301,16 +8301,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>142.628815381816</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>134.469188874128</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8456,10 +8456,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>383.7408211888696</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877591</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169156</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>435.8640776655531</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8705,7 +8705,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>301.3681639198729</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169156</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>435.8640776655531</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
@@ -9021,7 +9021,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>261.0929869123474</v>
+        <v>134.469188874128</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10671,7 +10671,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,7 +10680,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,19 +10905,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,19 +11063,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726565</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>435.8640776655531</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944895</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,7 +11303,7 @@
         <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>435.8640776655531</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11382,16 +11382,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>143.091025904242</v>
+        <v>164.1205091169156</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22601,19 +22601,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955612</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22626,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>91.84621575972147</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22644,7 +22644,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>74.70657083055679</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114489</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>0.2551407651970976</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22729,7 +22729,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434959</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,7 +22784,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22796,7 +22796,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>384.1517380750474</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22829,7 +22829,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22838,10 +22838,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
         <v>143.7231242791326</v>
@@ -22869,7 +22869,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>122.1641072233603</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22881,10 +22881,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>10.64942005369581</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22914,7 +22914,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22966,7 +22966,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180149</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,13 +23021,13 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327272</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,28 +23063,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>360.5200898075386</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,10 +23100,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23118,10 +23118,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>17.58351157266131</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23160,13 +23160,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>46.17713872263923</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3864165959696</v>
+        <v>0.1648513390239827</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.6226874585631</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327272</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394456</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,10 +23270,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>180.7200942177732</v>
@@ -23337,10 +23337,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>66.31411304886144</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23385,7 +23385,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23394,16 +23394,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>218.3136534180552</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.17713872263923</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970976</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>0.1648513390239827</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23516,7 +23516,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>3.502225147964964</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>17.57800512585098</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>45.82780846955612</v>
       </c>
       <c r="V14" t="n">
-        <v>296.6012590300472</v>
+        <v>318.5412475992046</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>165.016392283041</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>52.65842668182012</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23750,10 +23750,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>114.2465741324837</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.25440111315061</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,7 +23981,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>312.9645104224461</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,10 +24048,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>23.56361332425966</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,16 +24102,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24178,7 +24178,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,13 +24212,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,10 +24260,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>51.00955661900684</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
@@ -24288,7 +24288,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>60.70089315208922</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24300,13 +24300,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>101.6909038562026</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24403,7 +24403,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24446,13 +24446,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>139.0167266006028</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24525,10 +24525,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>13.81877842727314</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24579,16 +24579,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>47.14437060749302</v>
       </c>
     </row>
     <row r="28">
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24680,7 +24680,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,7 +24692,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24731,10 +24731,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,16 +24771,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>23.88970637041302</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>18.74806370369507</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,16 +24810,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24968,22 +24968,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24999,10 +24999,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>94.50284871713649</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>64.75151184148194</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25120,10 +25120,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
@@ -25233,28 +25233,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>27.2617907027001</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>43.24093381563971</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,19 +25287,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25394,7 +25394,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25485,7 +25485,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>80.57986310839478</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>118.3785022147356</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25637,10 +25637,10 @@
         <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>201.3582013034311</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>209.7848930768547</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>163.3715527109161</v>
+        <v>158.2215652569457</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25755,25 +25755,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>20.42353764269444</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>46.17713872263923</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>0.1648513390239827</v>
       </c>
     </row>
     <row r="43">
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774868</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>348.5708004529261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25941,13 +25941,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>51.83622708683059</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>100.6922494200736</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>20.42353764269444</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239827</v>
       </c>
     </row>
     <row r="46">
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473855.6414396566</v>
+        <v>473855.6414396567</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473855.6414396567</v>
+        <v>473855.6414396568</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473855.6414396568</v>
+        <v>473855.6414396566</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473855.6414396566</v>
+        <v>473855.6414396567</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>449864.3500647865</v>
+        <v>449864.3500647864</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449864.3500647865</v>
+        <v>449864.3500647864</v>
       </c>
     </row>
   </sheetData>
@@ -26320,22 +26320,22 @@
         <v>141981.8776514384</v>
       </c>
       <c r="E2" t="n">
-        <v>141981.8776514384</v>
+        <v>141981.8776514383</v>
       </c>
       <c r="F2" t="n">
-        <v>141981.8776514384</v>
+        <v>141981.8776514385</v>
       </c>
       <c r="G2" t="n">
         <v>149544.6052781992</v>
       </c>
       <c r="H2" t="n">
+        <v>149544.6052781991</v>
+      </c>
+      <c r="I2" t="n">
+        <v>149544.6052781991</v>
+      </c>
+      <c r="J2" t="n">
         <v>149544.6052781992</v>
-      </c>
-      <c r="I2" t="n">
-        <v>149544.6052781992</v>
-      </c>
-      <c r="J2" t="n">
-        <v>149544.6052781991</v>
       </c>
       <c r="K2" t="n">
         <v>149544.6052781992</v>
@@ -26350,10 +26350,10 @@
         <v>149544.6052781992</v>
       </c>
       <c r="O2" t="n">
+        <v>141981.8776514383</v>
+      </c>
+      <c r="P2" t="n">
         <v>141981.8776514384</v>
-      </c>
-      <c r="P2" t="n">
-        <v>141981.8776514385</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>68873.75658168981</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>9729.042974167107</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="C4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="D4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="E4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="F4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="P4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13696.11327271941</v>
+        <v>-12863.25672499594</v>
       </c>
       <c r="C6" t="n">
-        <v>55177.64330897049</v>
+        <v>56010.49985669389</v>
       </c>
       <c r="D6" t="n">
-        <v>55177.64330897044</v>
+        <v>56010.4998566939</v>
       </c>
       <c r="E6" t="n">
-        <v>88805.24330897046</v>
+        <v>89638.09985669384</v>
       </c>
       <c r="F6" t="n">
-        <v>88805.24330897049</v>
+        <v>89638.09985669394</v>
       </c>
       <c r="G6" t="n">
-        <v>82266.63928035492</v>
+        <v>83144.46818437427</v>
       </c>
       <c r="H6" t="n">
-        <v>91995.68225452202</v>
+        <v>92873.51115854131</v>
       </c>
       <c r="I6" t="n">
-        <v>91995.68225452202</v>
+        <v>92873.51115854131</v>
       </c>
       <c r="J6" t="n">
-        <v>38223.17136431253</v>
+        <v>39101.00026833195</v>
       </c>
       <c r="K6" t="n">
-        <v>91995.68225452202</v>
+        <v>92873.51115854134</v>
       </c>
       <c r="L6" t="n">
-        <v>91995.68225452202</v>
+        <v>92873.51115854137</v>
       </c>
       <c r="M6" t="n">
-        <v>91995.68225452202</v>
+        <v>92873.51115854134</v>
       </c>
       <c r="N6" t="n">
-        <v>91995.68225452199</v>
+        <v>92873.51115854137</v>
       </c>
       <c r="O6" t="n">
-        <v>88805.2433089705</v>
+        <v>89638.09985669384</v>
       </c>
       <c r="P6" t="n">
-        <v>88805.24330897053</v>
+        <v>89638.09985669389</v>
       </c>
     </row>
   </sheetData>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>35.49644443937868</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>35.49644443937868</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,10 +34699,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>148.1480627106908</v>
+      </c>
+      <c r="N3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M3" t="n">
-        <v>21.52426467247106</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34939,13 +34939,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.4086938026693</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35021,16 +35021,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4947814597977008</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35176,10 +35176,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>147.9744062188824</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048643</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35188,7 +35188,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247117</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35425,7 +35425,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>70.13516816460339</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247117</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35656,13 +35656,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
@@ -35741,7 +35741,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>127.1185794980172</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35966,13 +35966,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36443,10 +36443,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N24" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37391,7 +37391,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,7 +37400,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,19 +37625,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37783,7 +37783,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.4086938026693</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,10 +37792,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247117</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>0.494781459797586</v>
+        <v>21.52426467247117</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>570443.2269631915</v>
+        <v>571227.3729012205</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>61.30794109354961</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>14.6900620208583</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>31.15099944008765</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>8.172609644471894</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>78.74721279771927</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9.211010870930398</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1214,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>71.81312127875377</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1272,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
+        <v>46.54968785507681</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1373,22 +1375,22 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1506,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>14.48693373137006</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>9.211010870930345</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274742</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1698,16 +1700,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>8.172609644471923</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>90.38893773807641</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1941,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>63.14223173826446</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1986,7 +1988,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,23 +2080,23 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -2123,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>123.8814522403791</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,16 +2216,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2324,61 +2326,61 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2400,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>86.74417241254953</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2515,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2558,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.8263020281278</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2691,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>158.5383251698113</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2725,43 +2727,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,50 +2806,50 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>20.84388158835544</v>
       </c>
       <c r="I30" t="n">
-        <v>70.64856914772001</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,16 +2924,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="U32" t="n">
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>63.14223173826446</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>16.16726461546774</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3278,49 +3280,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>202.2946864288972</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
@@ -3345,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>20.02544070929549</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>56.91690033700343</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>87.39448298874188</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3597,7 +3599,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>31.65558112810168</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>14.48693373137</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U42" t="n">
         <v>205.5178444382804</v>
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,17 +3976,17 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>21.16030022554286</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>114.6969565630367</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>67.40972515104126</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C2" t="n">
         <v>16.44142755506243</v>
@@ -4340,40 +4342,40 @@
         <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184225</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610705</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531215</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531215</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531215</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531215</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922322</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V2" t="n">
-        <v>406.883813231343</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W2" t="n">
-        <v>199.2900309704537</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X2" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.27987404077788</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="C3" t="n">
-        <v>31.27987404077788</v>
+        <v>479.4030114519265</v>
       </c>
       <c r="D3" t="n">
-        <v>31.27987404077788</v>
+        <v>330.4686017906753</v>
       </c>
       <c r="E3" t="n">
-        <v>31.27987404077788</v>
+        <v>330.4686017906753</v>
       </c>
       <c r="F3" t="n">
-        <v>31.27987404077788</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G3" t="n">
-        <v>31.27987404077788</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H3" t="n">
-        <v>31.27987404077788</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
         <v>16.44142755506243</v>
@@ -4413,46 +4415,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386463</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397922</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037904</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>446.4674385625564</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>446.4674385625564</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W3" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X3" t="n">
-        <v>31.27987404077788</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y3" t="n">
-        <v>31.27987404077788</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.90708355515096</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>47.90708355515096</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>47.90708355515096</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>47.90708355515096</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>47.90708355515096</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
         <v>16.44142755506243</v>
@@ -4568,49 +4570,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184225</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610705</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>670.6884303378188</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>670.6884303378188</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>670.6884303378188</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>670.6884303378188</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>463.0946480769295</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>255.5008658160402</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>255.5008658160402</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>47.90708355515096</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4623,22 +4625,22 @@
         <v>653.8560407330535</v>
       </c>
       <c r="C6" t="n">
-        <v>653.8560407330535</v>
+        <v>479.4030114519265</v>
       </c>
       <c r="D6" t="n">
-        <v>653.8560407330535</v>
+        <v>330.4686017906753</v>
       </c>
       <c r="E6" t="n">
-        <v>494.618585727598</v>
+        <v>171.2311467852198</v>
       </c>
       <c r="F6" t="n">
-        <v>348.084027754483</v>
+        <v>24.69658881210475</v>
       </c>
       <c r="G6" t="n">
-        <v>209.3532023370985</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>95.98406674467786</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
         <v>16.44142755506243</v>
@@ -4647,49 +4649,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128998</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.7243196006949</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>548.7243196006949</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>752.1869855945924</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397922</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y6" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D8" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4811,43 +4813,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184225</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610705</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531215</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531215</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531215</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531215</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531215</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531215</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531215</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377302</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y8" t="n">
-        <v>639.2227743377302</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.6684762112749</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C9" t="n">
-        <v>238.6684762112749</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>89.73406655002367</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>89.73406655002367</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>89.73406655002367</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>89.73406655002367</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>89.73406655002367</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784814</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128998</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128998</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>548.7243196006949</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
         <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397922</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922322</v>
+        <v>775.0514910308218</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922322</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.883813231343</v>
+        <v>359.8639265090432</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.883813231343</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704537</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5048,43 +5050,43 @@
         <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922322</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="12">
@@ -5121,49 +5123,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128998</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128998</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>548.7243196006949</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397922</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>807.4381113577982</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>599.844329096909</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X12" t="n">
-        <v>392.2505468360197</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.6567645751305</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5218,31 +5220,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>28.51141680214578</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D14" t="n">
-        <v>28.51141680214578</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E14" t="n">
-        <v>28.51141680214578</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F14" t="n">
-        <v>28.51141680214578</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>28.51141680214578</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>469.4137616165759</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104735</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848945</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695917</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087024</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478132</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>37.81546818692391</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531215</v>
+        <v>645.6008794760112</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>471.1478501948842</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784814</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128998</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>548.7243196006949</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>548.7243196006949</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945924</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397922</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531215</v>
+        <v>813.8162164960793</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531215</v>
+        <v>813.8162164960793</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>122.6530896684844</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>122.6530896684844</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>122.6530896684844</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
         <v>304.2053859195205</v>
@@ -5619,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>562.4161926976942</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>327.2640844659515</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>83.81530782185143</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X18" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5695,16 +5697,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C20" t="n">
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5771,28 +5773,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
         <v>506.1786963984129</v>
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>318.8669524321267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>144.4139231509997</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>526.7184526376595</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>318.8669524321267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>318.8669524321267</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5938,7 +5940,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>310.5702840197694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>310.5702840197694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X24" t="n">
-        <v>310.5702840197694</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y24" t="n">
-        <v>310.5702840197694</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X26" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y26" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>555.4877027295624</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>555.4877027295624</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>347.6362025240296</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.4964801302808</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90.64333416851576</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C30" t="n">
-        <v>90.64333416851576</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="D30" t="n">
-        <v>90.64333416851576</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="E30" t="n">
-        <v>90.64333416851576</v>
+        <v>179.0663943744209</v>
       </c>
       <c r="F30" t="n">
-        <v>90.64333416851576</v>
+        <v>179.0663943744209</v>
       </c>
       <c r="G30" t="n">
-        <v>90.64333416851576</v>
+        <v>40.3355689570364</v>
       </c>
       <c r="H30" t="n">
-        <v>90.64333416851576</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,16 +6545,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>298.4948343740486</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>90.64333416851576</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.64333416851576</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="31">
@@ -6728,19 +6730,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V32" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U32" t="n">
+      <c r="W32" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
         <v>19.28114311021272</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83.81530782185143</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="C33" t="n">
-        <v>83.81530782185143</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="D33" t="n">
-        <v>83.81530782185143</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>83.81530782185143</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>83.81530782185143</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y33" t="n">
-        <v>83.81530782185143</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="34">
@@ -6883,16 +6885,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>688.4345967823949</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>906.5653369884105</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>906.5653369884105</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>906.5653369884105</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>678.3417187247995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>678.3417187247995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>485.4562706347935</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="C39" t="n">
-        <v>485.4562706347935</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="D39" t="n">
-        <v>336.5218609735422</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E39" t="n">
-        <v>336.5218609735422</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F39" t="n">
-        <v>189.9873030004272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>51.25647758304271</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7257,7 +7259,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
         <v>417.4543050195419</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y39" t="n">
-        <v>485.4562706347935</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7356,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>811.9797623848945</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="C41" t="n">
-        <v>811.9797623848945</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377302</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
@@ -7421,40 +7423,40 @@
         <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184225</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610705</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848945</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848945</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848945</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848945</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848945</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848945</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W41" t="n">
-        <v>811.9797623848945</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X41" t="n">
-        <v>811.9797623848945</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.9797623848945</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.07469395038567</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
         <v>16.44142755506243</v>
@@ -7491,49 +7493,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128998</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128998</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M42" t="n">
-        <v>163.1080096386463</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397922</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531215</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U42" t="n">
-        <v>614.4775954922322</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V42" t="n">
-        <v>614.4775954922322</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W42" t="n">
-        <v>406.883813231343</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>406.883813231343</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.2900309704537</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7588,16 +7590,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7625,19 +7627,19 @@
         <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7652,46 +7654,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184225</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610705</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848945</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695917</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377302</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377302</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377302</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377302</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377302</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377302</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>84.53205902076067</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>84.53205902076067</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>84.53205902076067</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>84.53205902076067</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7728,49 +7730,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128998</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>548.7243196006949</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397922</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531215</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060072</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566761</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566761</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>339.8907214957868</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>339.8907214957868</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957868</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>339.8907214957868</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y45" t="n">
-        <v>132.2969392348975</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="46">
@@ -7837,16 +7839,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -7985,7 +7987,7 @@
         <v>397.2306702988408</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655531</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8061,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M3" t="n">
-        <v>290.2820966327091</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
@@ -8073,7 +8075,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726565</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655531</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>360.3696370111358</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8301,16 +8303,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>134.469188874128</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877591</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>164.1205091169156</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655531</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8705,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>301.3681639198729</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O12" t="n">
-        <v>164.1205091169156</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655531</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9021,7 +9023,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>134.469188874128</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133072</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10907,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11063,10 +11065,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726565</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655531</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11145,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>163.6582985944895</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,10 +11302,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655531</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>164.1205091169156</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>194.2434736043149</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22589,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22601,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955612</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>83.76127129983428</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>74.70657083055679</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22674,22 +22676,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114489</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970976</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22729,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22759,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22796,7 +22798,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>384.1517380750474</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22829,7 +22831,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22841,13 +22843,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,10 +22865,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22875,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>129.1709075187387</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>10.64942005369581</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327272</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23036,13 +23038,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>330.2637912448367</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23078,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972317</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23100,10 +23102,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23118,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>17.58351157266131</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23160,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.17713872263923</v>
+        <v>205.1452953058428</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239827</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23258,10 +23260,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327272</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>173.6629242394456</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23276,7 +23278,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23394,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>218.3136534180552</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>46.17713872263923</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970976</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239827</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23507,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964964</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585098</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955612</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>318.5412475992046</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>165.016392283041</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23586,16 +23588,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>197.6003755590056</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23732,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>363.4633956979714</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>120.0869518323295</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23829,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>26.25440111315061</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,10 +23861,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23874,7 +23876,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>23.56361332425966</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,16 +24104,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24178,10 +24180,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24212,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,13 +24262,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>125.4575720412377</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>298.7739903697332</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24288,7 +24290,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>60.70089315208922</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24300,10 +24302,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24333,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>100.9443125299447</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24403,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24446,13 +24448,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>292.2667739183906</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,13 +24527,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>1.24291036525608</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24579,16 +24581,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>47.14437060749302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24649,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24680,7 +24682,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,10 +24733,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,25 +24761,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>91.39156264814102</v>
       </c>
       <c r="I30" t="n">
-        <v>18.74806370369507</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24810,16 +24812,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>94.50284871713649</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25011,13 +25013,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>96.06817962102872</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25123,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>49.05096647893927</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
@@ -25233,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>43.24093381563971</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25394,7 +25396,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25436,13 +25438,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>79.13870066112545</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25485,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>80.57986310839478</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25527,16 +25529,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25637,10 +25639,10 @@
         <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>201.3582013034311</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768547</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>158.2215652569457</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25758,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269444</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.17713872263923</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239827</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25828,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>239.2941050228173</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774868</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>365.0776384305107</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>51.83622708683059</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25959,7 +25961,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>44.82571908545521</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -25998,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269444</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239827</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>449864.3500647865</v>
+        <v>449864.3500647864</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449864.3500647865</v>
+        <v>449864.3500647864</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>449864.3500647865</v>
+        <v>449864.3500647864</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>449864.3500647865</v>
+        <v>449864.3500647866</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473855.6414396567</v>
+        <v>473855.6414396566</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473855.6414396567</v>
+        <v>473855.6414396566</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473855.6414396566</v>
+        <v>473855.6414396567</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>449864.3500647864</v>
+        <v>449864.3500647865</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449864.3500647864</v>
+        <v>449864.3500647866</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141981.8776514384</v>
+        <v>141981.8776514385</v>
       </c>
       <c r="C2" t="n">
         <v>141981.8776514384</v>
@@ -26320,19 +26322,19 @@
         <v>141981.8776514384</v>
       </c>
       <c r="E2" t="n">
-        <v>141981.8776514383</v>
+        <v>141981.8776514384</v>
       </c>
       <c r="F2" t="n">
-        <v>141981.8776514385</v>
+        <v>141981.8776514384</v>
       </c>
       <c r="G2" t="n">
+        <v>149544.6052781991</v>
+      </c>
+      <c r="H2" t="n">
         <v>149544.6052781992</v>
       </c>
-      <c r="H2" t="n">
-        <v>149544.6052781991</v>
-      </c>
       <c r="I2" t="n">
-        <v>149544.6052781991</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="J2" t="n">
         <v>149544.6052781992</v>
@@ -26341,7 +26343,7 @@
         <v>149544.6052781992</v>
       </c>
       <c r="L2" t="n">
-        <v>149544.6052781992</v>
+        <v>149544.6052781991</v>
       </c>
       <c r="M2" t="n">
         <v>149544.6052781992</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168981</v>
+        <v>68873.75658168984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167107</v>
+        <v>9729.042974167098</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26439,13 +26441,13 @@
         <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
         <v>42017.42535589614</v>
       </c>
       <c r="L4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
         <v>42017.42535589615</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12863.25672499594</v>
+        <v>-12863.25672499589</v>
       </c>
       <c r="C6" t="n">
-        <v>56010.49985669389</v>
+        <v>56010.49985669392</v>
       </c>
       <c r="D6" t="n">
-        <v>56010.4998566939</v>
+        <v>56010.49985669392</v>
       </c>
       <c r="E6" t="n">
-        <v>89638.09985669384</v>
+        <v>89638.09985669388</v>
       </c>
       <c r="F6" t="n">
-        <v>89638.09985669394</v>
+        <v>89638.09985669392</v>
       </c>
       <c r="G6" t="n">
-        <v>83144.46818437427</v>
+        <v>83144.46818437421</v>
       </c>
       <c r="H6" t="n">
+        <v>92873.51115854137</v>
+      </c>
+      <c r="I6" t="n">
+        <v>92873.51115854137</v>
+      </c>
+      <c r="J6" t="n">
+        <v>39101.00026833193</v>
+      </c>
+      <c r="K6" t="n">
+        <v>92873.51115854137</v>
+      </c>
+      <c r="L6" t="n">
         <v>92873.51115854131</v>
       </c>
-      <c r="I6" t="n">
-        <v>92873.51115854131</v>
-      </c>
-      <c r="J6" t="n">
-        <v>39101.00026833195</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>92873.51115854137</v>
+      </c>
+      <c r="N6" t="n">
         <v>92873.51115854134</v>
-      </c>
-      <c r="L6" t="n">
-        <v>92873.51115854137</v>
-      </c>
-      <c r="M6" t="n">
-        <v>92873.51115854134</v>
-      </c>
-      <c r="N6" t="n">
-        <v>92873.51115854137</v>
       </c>
       <c r="O6" t="n">
         <v>89638.09985669384</v>
       </c>
       <c r="P6" t="n">
-        <v>89638.09985669389</v>
+        <v>89638.09985669392</v>
       </c>
     </row>
   </sheetData>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937868</v>
+        <v>35.49644443937865</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937868</v>
+        <v>35.49644443937865</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34781,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106908</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
@@ -34793,7 +34795,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34936,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>57.4086938026693</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>130.2714255894491</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35021,16 +35023,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4947814597977008</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048643</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>21.52426467247117</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35425,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>70.13516816460339</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
+        <v>197.2140931478448</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O12" t="n">
-        <v>21.52426467247117</v>
-      </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35659,7 +35661,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4947814597977008</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.8112771299739</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,10 +37627,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37783,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.4086938026693</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37865,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>21.52426467247117</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>21.52426467247117</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>571227.3729012205</v>
+        <v>466994.8746377772</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5339910.946555803</v>
+        <v>5339910.946555802</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>171.0294181666926</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>61.30794109354961</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -898,56 +898,56 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.172609644471894</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>9.211010870930398</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>46.54968785507681</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>181.0201173812374</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>205.5178444382804</v>
@@ -1615,64 +1615,64 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="X15" t="n">
-        <v>8.172609644471923</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>150.252752286242</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.40726547353833</v>
+        <v>97.43900869037179</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2362,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.234466016111892</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>50.46697834767978</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>117.6168938316385</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>104.7383832473596</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2560,25 +2560,25 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -2611,7 +2611,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>143.8263020281278</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>82.36881167544456</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2876,25 +2876,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>142.4223624459043</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>20.84388158835544</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>16.16726461546774</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>20.02544070929549</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
     </row>
     <row r="39">
@@ -3581,31 +3581,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>87.39448298874188</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,61 +3663,61 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3745,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3784,19 +3784,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>35.95090498785356</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,65 +3976,65 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>67.40972515104126</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>159.0512204786343</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>189.1984156022267</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4333,7 +4333,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
         <v>176.2910403306274</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>653.8560407330535</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>479.4030114519265</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>330.4686017906753</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>330.4686017906753</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
         <v>16.44142755506243</v>
@@ -4415,19 +4415,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>142.2888212580996</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>345.7514872519972</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>549.2141532458947</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V3" t="n">
-        <v>822.0713777531216</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="W3" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4570,16 +4570,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4591,28 +4591,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>653.8560407330535</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="C6" t="n">
-        <v>479.4030114519265</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="D6" t="n">
-        <v>330.4686017906753</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="E6" t="n">
-        <v>171.2311467852198</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>24.69658881210475</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
         <v>16.44142755506243</v>
@@ -4655,43 +4655,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y6" t="n">
-        <v>822.0713777531216</v>
+        <v>98.12050152333947</v>
       </c>
     </row>
     <row r="7">
@@ -4752,13 +4752,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
         <v>16.44142755506243</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4816,40 +4816,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T8" t="n">
-        <v>660.5968149695918</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U8" t="n">
-        <v>660.5968149695918</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="V8" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W8" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X8" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y8" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>191.6485894889752</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>16.44142755506243</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4913,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W9" t="n">
-        <v>775.0514910308218</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X9" t="n">
-        <v>567.4577087699325</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>359.8639265090432</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -5001,13 +5001,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D11" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5044,16 +5044,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5126,10 +5126,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M12" t="n">
-        <v>423.3667595428576</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N12" t="n">
         <v>618.608711759224</v>
@@ -5144,25 +5144,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="W12" t="n">
-        <v>406.8838132313431</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="X12" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
         <v>16.44142755506243</v>
@@ -5217,19 +5217,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
         <v>16.44142755506243</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5281,19 +5281,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5320,10 +5320,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>645.6008794760112</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>471.1478501948842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>322.2134405336329</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
         <v>16.44142755506243</v>
@@ -5366,16 +5366,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5384,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X15" t="n">
-        <v>813.8162164960793</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>813.8162164960793</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5469,19 +5469,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>533.6469426057913</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="V18" t="n">
-        <v>298.4948343740486</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="W18" t="n">
-        <v>55.04605772994853</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="19">
@@ -5700,13 +5700,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>928.2922408909005</v>
+        <v>865.6339144092506</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>865.6339144092506</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>865.6339144092506</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>865.6339144092506</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>630.4818061775079</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="22">
@@ -5940,7 +5940,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E23" t="n">
         <v>31.35113235729608</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U23" t="n">
-        <v>569.2254314512334</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V23" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W23" t="n">
         <v>274.7999090013961</v>
       </c>
       <c r="X23" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>845.2522122463549</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>845.2522122463549</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="W24" t="n">
-        <v>125.0774898247174</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X24" t="n">
-        <v>125.0774898247174</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U26" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V26" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W26" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X26" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>313.4946457291688</v>
+        <v>544.5346979575927</v>
       </c>
       <c r="C27" t="n">
-        <v>313.4946457291688</v>
+        <v>544.5346979575927</v>
       </c>
       <c r="D27" t="n">
-        <v>164.5602360679176</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="E27" t="n">
-        <v>164.5602360679176</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>544.5346979575927</v>
       </c>
       <c r="Y27" t="n">
-        <v>481.7099827492369</v>
+        <v>544.5346979575927</v>
       </c>
     </row>
     <row r="28">
@@ -6411,16 +6411,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>512.7568786610034</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C30" t="n">
-        <v>338.3038493798764</v>
+        <v>312.8306575918298</v>
       </c>
       <c r="D30" t="n">
-        <v>338.3038493798764</v>
+        <v>163.8962479305785</v>
       </c>
       <c r="E30" t="n">
-        <v>179.0663943744209</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>179.0663943744209</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>40.3355689570364</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X30" t="n">
-        <v>512.7568786610034</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.7568786610034</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="31">
@@ -6645,16 +6645,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6730,13 +6730,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
         <v>506.1786963984129</v>
@@ -6745,7 +6745,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.61171342886701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>35.61171342886701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>35.61171342886701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>35.61171342886701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>35.61171342886701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>35.61171342886701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6791,40 +6791,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W33" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>411.587349213889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6897,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>688.4345967823949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7083,13 +7083,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7198,25 +7198,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>942.6594228129348</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y38" t="n">
         <v>262.7299197543128</v>
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>566.8500717543842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>566.8500717543842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>655.1273272985679</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
@@ -7417,13 +7417,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7432,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>52.75547299733876</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7493,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7520,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X42" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="43">
@@ -7590,19 +7590,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
         <v>16.44142755506243</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>233.4664686820119</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="C45" t="n">
-        <v>233.4664686820119</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="D45" t="n">
-        <v>84.53205902076067</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="E45" t="n">
-        <v>84.53205902076067</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="F45" t="n">
-        <v>84.53205902076067</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53205902076067</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>246.2260147680761</v>
       </c>
     </row>
     <row r="46">
@@ -7833,22 +7833,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -7981,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>397.2306702988408</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -8063,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>265.6729592778915</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8075,10 +8075,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8230,7 +8230,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>360.3696370111358</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8303,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8464,13 +8464,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M9" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8549,10 +8549,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8774,13 +8774,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>328.5558052311782</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9014,7 +9014,7 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9023,10 +9023,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>349.0484638974528</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10919,10 +10919,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11074,7 +11074,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>233.7538122443171</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11156,7 +11156,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11311,10 +11311,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C2" t="n">
-        <v>194.2434736043149</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,25 +22625,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>83.76127129983428</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22676,19 +22676,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>237.0049211400612</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22786,7 +22786,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>334.1218923309199</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22831,10 +22831,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>76.78279722680668</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>129.1709075187387</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23001,7 +23001,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23038,13 +23038,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>330.2637912448367</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>296.6012590300472</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,16 +23153,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>39.56814895627872</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>205.1452953058428</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>37.99065141955279</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23402,10 +23402,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>24.75286782224003</v>
+        <v>91.07602864044064</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>159.7550473327271</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23624,22 +23624,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>237.0049211400612</v>
       </c>
       <c r="X15" t="n">
-        <v>197.6003755590056</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
-        <v>363.4633956979714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23749,10 +23749,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>75.6886297947328</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23977,22 +23977,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,7 +24022,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>140.9771323296006</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24056,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.7505686791048</v>
+        <v>2.71882546227134</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24180,10 +24180,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24250,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0.7562331984329127</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>298.7739903697332</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>82.54783486318313</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>100.9443125299447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24448,25 +24448,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>328.2817459595876</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24533,19 +24533,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>1.24291036525608</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24581,16 +24581,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>123.4041735280329</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24764,25 +24764,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>15.22271800949667</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>91.39156264814102</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24821,10 +24821,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24897,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24970,22 +24970,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25013,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>96.06817962102872</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25201,25 +25201,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>127.4196248553433</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25438,19 +25438,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>323.8216709537613</v>
       </c>
     </row>
     <row r="39">
@@ -25469,31 +25469,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79.13870066112545</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>65.49716000536256</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25633,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>183.6536234539904</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>220.1946534677488</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25718,10 +25718,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>101.3926121753571</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25760,13 +25760,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>19.14461131358425</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25830,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25842,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25921,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>365.0776384305107</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25958,16 +25958,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>44.82571908545521</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26003,16 +26003,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>92.64376268228534</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449864.3500647864</v>
+        <v>449864.3500647865</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>449864.3500647864</v>
+        <v>449864.3500647865</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>449864.3500647866</v>
+        <v>449864.3500647865</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473855.6414396566</v>
+        <v>473855.6414396567</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473855.6414396566</v>
+        <v>473855.6414396567</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473855.6414396568</v>
+        <v>473855.6414396567</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473855.6414396568</v>
+        <v>473855.6414396567</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473855.6414396567</v>
+        <v>473855.6414396566</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473855.6414396567</v>
+        <v>473855.6414396566</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>449864.3500647865</v>
+        <v>449864.3500647864</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449864.3500647866</v>
+        <v>449864.3500647864</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141981.8776514385</v>
+        <v>141981.8776514384</v>
       </c>
       <c r="C2" t="n">
         <v>141981.8776514384</v>
@@ -26328,7 +26328,7 @@
         <v>141981.8776514384</v>
       </c>
       <c r="G2" t="n">
-        <v>149544.6052781991</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="H2" t="n">
         <v>149544.6052781992</v>
@@ -26343,7 +26343,7 @@
         <v>149544.6052781992</v>
       </c>
       <c r="L2" t="n">
-        <v>149544.6052781991</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="M2" t="n">
         <v>149544.6052781992</v>
@@ -26352,7 +26352,7 @@
         <v>149544.6052781992</v>
       </c>
       <c r="O2" t="n">
-        <v>141981.8776514383</v>
+        <v>141981.8776514384</v>
       </c>
       <c r="P2" t="n">
         <v>141981.8776514384</v>
@@ -26444,13 +26444,13 @@
         <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="N4" t="n">
         <v>42017.42535589615</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12863.25672499589</v>
+        <v>-25501.41887985648</v>
       </c>
       <c r="C6" t="n">
-        <v>56010.49985669392</v>
+        <v>43372.33770183342</v>
       </c>
       <c r="D6" t="n">
-        <v>56010.49985669392</v>
+        <v>43372.33770183342</v>
       </c>
       <c r="E6" t="n">
-        <v>89638.09985669388</v>
+        <v>76999.93770183342</v>
       </c>
       <c r="F6" t="n">
-        <v>89638.09985669392</v>
+        <v>76999.93770183336</v>
       </c>
       <c r="G6" t="n">
-        <v>83144.46818437421</v>
+        <v>70926.45756433377</v>
       </c>
       <c r="H6" t="n">
-        <v>92873.51115854137</v>
+        <v>80655.50053850093</v>
       </c>
       <c r="I6" t="n">
-        <v>92873.51115854137</v>
+        <v>80655.50053850093</v>
       </c>
       <c r="J6" t="n">
-        <v>39101.00026833193</v>
+        <v>26882.98964829147</v>
       </c>
       <c r="K6" t="n">
-        <v>92873.51115854137</v>
+        <v>80655.5005385009</v>
       </c>
       <c r="L6" t="n">
-        <v>92873.51115854131</v>
+        <v>80655.5005385009</v>
       </c>
       <c r="M6" t="n">
-        <v>92873.51115854137</v>
+        <v>80655.5005385009</v>
       </c>
       <c r="N6" t="n">
-        <v>92873.51115854134</v>
+        <v>80655.50053850087</v>
       </c>
       <c r="O6" t="n">
-        <v>89638.09985669384</v>
+        <v>76999.93770183339</v>
       </c>
       <c r="P6" t="n">
-        <v>89638.09985669392</v>
+        <v>76999.93770183342</v>
       </c>
     </row>
   </sheetData>
@@ -34701,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>161.4642553288535</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>127.1185794980173</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34795,10 +34795,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34950,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>130.2714255894491</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35023,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M9" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35269,10 +35269,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35494,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37639,10 +37639,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37794,7 +37794,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>91.61977832229879</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37876,7 +37876,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38031,10 +38031,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
